--- a/result/convert_currency_results.xlsx
+++ b/result/convert_currency_results.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/precioux/Documents/Eunoia-Plus/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D135DC-0CB8-244A-8734-94715DB18E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C8191-EC83-9446-A31E-A3ED77B1967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
   <si>
     <t>CID</t>
   </si>
@@ -238,15 +251,9 @@
     <t>فکر کنم صرافیه داره سرم کلاه میذاره. الان با 15 میلیون تومن چقدر میشه خرید؟به چی میخوای تبدیلش کنی؟یورومیشه API یورو</t>
   </si>
   <si>
-    <t>INSERT INTO dst_table ( Source_Currency, Dest_Currency) VALUES ('تومن','یورو');</t>
-  </si>
-  <si>
     <t>قیمتا بدجور داره میره بالا. الان یورو چنده ؟نسبت به چی چنده ؟تومن دیگههر یورو API تومنه</t>
   </si>
   <si>
-    <t>End part not found.</t>
-  </si>
-  <si>
     <t>میخوام ارز جابجا کنم. میتونی کمکم کنی؟اره چه ارزی میخوای؟باید 500 دلار جابجا کنمبا چی میخوای بخری؟ریال دیگهالان 500 دلار میشه API ریال</t>
   </si>
   <si>
@@ -302,9 +309,6 @@
   </si>
   <si>
     <t>میتونی ارز تبدیل کنی؟اره. چه ارزی رو میخوای تبدیل کنم؟الان هر دینار کویت چند دلاره؟API</t>
-  </si>
-  <si>
-    <t>Start part not found.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -858,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -870,7 +874,7 @@
     <col min="3" max="3" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -897,8 +901,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -911,8 +918,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -953,8 +969,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -981,8 +1003,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -995,8 +1020,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1009,8 +1037,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1023,8 +1054,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1037,8 +1071,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1051,8 +1088,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1065,8 +1105,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1079,8 +1122,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1093,8 +1139,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1107,8 +1156,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1121,8 +1173,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1135,8 +1190,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1149,8 +1207,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1163,8 +1224,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1177,8 +1241,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1191,8 +1258,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1205,8 +1275,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1219,8 +1292,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1233,8 +1309,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1247,8 +1326,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1261,8 +1343,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1275,8 +1360,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1289,8 +1377,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1303,8 +1394,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1317,8 +1411,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1331,8 +1428,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1345,8 +1445,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1359,8 +1462,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1373,890 +1479,1052 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
       <c r="D45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>10</v>
-      </c>
-      <c r="B61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>14</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>16</v>
-      </c>
-      <c r="B67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>17</v>
-      </c>
-      <c r="B68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>19</v>
-      </c>
-      <c r="B70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>20</v>
-      </c>
-      <c r="B71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>21</v>
-      </c>
-      <c r="B72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>22</v>
-      </c>
-      <c r="B73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>23</v>
-      </c>
-      <c r="B74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>24</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>26</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>27</v>
-      </c>
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>28</v>
-      </c>
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>29</v>
-      </c>
-      <c r="B80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>30</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>31</v>
-      </c>
-      <c r="B82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>32</v>
-      </c>
-      <c r="B83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>33</v>
-      </c>
-      <c r="B84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>34</v>
-      </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" t="s">
-        <v>129</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>35</v>
-      </c>
-      <c r="B86" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" t="s">
-        <v>130</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>36</v>
-      </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>37</v>
-      </c>
-      <c r="B88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>38</v>
-      </c>
-      <c r="B89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>39</v>
-      </c>
-      <c r="B90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" t="s">
-        <v>134</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>40</v>
-      </c>
-      <c r="B91" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>41</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>42</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>137</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>43</v>
-      </c>
-      <c r="B94" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>44</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>45</v>
-      </c>
-      <c r="B96" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>46</v>
-      </c>
-      <c r="B97" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>47</v>
-      </c>
-      <c r="B98" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" t="s">
-        <v>142</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>48</v>
-      </c>
-      <c r="B99" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
+      <c r="E47">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58EE301-8F3F-804B-9956-CC8D986B5995}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <f>AVERAGE(E2:E49)</f>
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>